--- a/SuppXLS/Scen_TRA_TAX_Rebate.xlsx
+++ b/SuppXLS/Scen_TRA_TAX_Rebate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Ireland-model\main-8760\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C7B6F-8F6E-4672-8EEF-A0C7B8E6C225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6267B59-2440-491B-99C8-EC3B58C1BD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="5850" windowWidth="42165" windowHeight="23985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -449,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="???,???.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="???,???.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -718,7 +718,7 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -726,13 +726,13 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -742,7 +742,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -775,7 +775,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>

--- a/SuppXLS/Scen_TRA_TAX_Rebate.xlsx
+++ b/SuppXLS/Scen_TRA_TAX_Rebate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C7B6F-8F6E-4672-8EEF-A0C7B8E6C225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714001F-E7E8-4B86-A0E5-B826B5B28168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -449,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="???,???.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="???,???.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -718,7 +718,7 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -726,13 +726,13 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -742,7 +742,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -775,7 +775,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
